--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.87215310412942</v>
+        <v>0.04266066666666667</v>
       </c>
       <c r="H2">
-        <v>1.87215310412942</v>
+        <v>0.127982</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01610032922255923</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01610032922255923</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.432974495221554</v>
+        <v>0.09309933333333333</v>
       </c>
       <c r="N2">
-        <v>0.432974495221554</v>
+        <v>0.279298</v>
       </c>
       <c r="O2">
-        <v>0.6110205572615177</v>
+        <v>0.09868343413743418</v>
       </c>
       <c r="P2">
-        <v>0.6110205572615177</v>
+        <v>0.09868343413743418</v>
       </c>
       <c r="Q2">
-        <v>0.8105945452379011</v>
+        <v>0.003971679626222222</v>
       </c>
       <c r="R2">
-        <v>0.8105945452379011</v>
+        <v>0.035745116636</v>
       </c>
       <c r="S2">
-        <v>0.6110205572615177</v>
+        <v>0.001588835778425431</v>
       </c>
       <c r="T2">
-        <v>0.6110205572615177</v>
+        <v>0.001588835778425431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.04266066666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.127982</v>
+      </c>
+      <c r="I3">
+        <v>0.01610032922255923</v>
+      </c>
+      <c r="J3">
+        <v>0.01610032922255923</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.441502</v>
+      </c>
+      <c r="N3">
+        <v>1.324506</v>
+      </c>
+      <c r="O3">
+        <v>0.4679833031945678</v>
+      </c>
+      <c r="P3">
+        <v>0.4679833031945678</v>
+      </c>
+      <c r="Q3">
+        <v>0.01883476965466667</v>
+      </c>
+      <c r="R3">
+        <v>0.169512926892</v>
+      </c>
+      <c r="S3">
+        <v>0.007534685252093299</v>
+      </c>
+      <c r="T3">
+        <v>0.007534685252093296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.04266066666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.127982</v>
+      </c>
+      <c r="I4">
+        <v>0.01610032922255923</v>
+      </c>
+      <c r="J4">
+        <v>0.01610032922255923</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.4088126666666667</v>
+      </c>
+      <c r="N4">
+        <v>1.226438</v>
+      </c>
+      <c r="O4">
+        <v>0.433333262667998</v>
+      </c>
+      <c r="P4">
+        <v>0.4333332626679979</v>
+      </c>
+      <c r="Q4">
+        <v>0.01744022090177778</v>
+      </c>
+      <c r="R4">
+        <v>0.156961988116</v>
+      </c>
+      <c r="S4">
+        <v>0.006976808192040505</v>
+      </c>
+      <c r="T4">
+        <v>0.006976808192040503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.216235</v>
+      </c>
+      <c r="H5">
+        <v>0.648705</v>
+      </c>
+      <c r="I5">
+        <v>0.08160807041865487</v>
+      </c>
+      <c r="J5">
+        <v>0.08160807041865485</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.09309933333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.279298</v>
+      </c>
+      <c r="O5">
+        <v>0.09868343413743418</v>
+      </c>
+      <c r="P5">
+        <v>0.09868343413743418</v>
+      </c>
+      <c r="Q5">
+        <v>0.02013133434333333</v>
+      </c>
+      <c r="R5">
+        <v>0.18118200909</v>
+      </c>
+      <c r="S5">
+        <v>0.008053364642242418</v>
+      </c>
+      <c r="T5">
+        <v>0.008053364642242416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.216235</v>
+      </c>
+      <c r="H6">
+        <v>0.648705</v>
+      </c>
+      <c r="I6">
+        <v>0.08160807041865487</v>
+      </c>
+      <c r="J6">
+        <v>0.08160807041865485</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.441502</v>
+      </c>
+      <c r="N6">
+        <v>1.324506</v>
+      </c>
+      <c r="O6">
+        <v>0.4679833031945678</v>
+      </c>
+      <c r="P6">
+        <v>0.4679833031945678</v>
+      </c>
+      <c r="Q6">
+        <v>0.09546818496999999</v>
+      </c>
+      <c r="R6">
+        <v>0.8592136647299999</v>
+      </c>
+      <c r="S6">
+        <v>0.038191214361857</v>
+      </c>
+      <c r="T6">
+        <v>0.03819121436185699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.216235</v>
+      </c>
+      <c r="H7">
+        <v>0.648705</v>
+      </c>
+      <c r="I7">
+        <v>0.08160807041865487</v>
+      </c>
+      <c r="J7">
+        <v>0.08160807041865485</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4088126666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.226438</v>
+      </c>
+      <c r="O7">
+        <v>0.433333262667998</v>
+      </c>
+      <c r="P7">
+        <v>0.4333332626679979</v>
+      </c>
+      <c r="Q7">
+        <v>0.08839960697666666</v>
+      </c>
+      <c r="R7">
+        <v>0.79559646279</v>
+      </c>
+      <c r="S7">
+        <v>0.03536349141455544</v>
+      </c>
+      <c r="T7">
+        <v>0.03536349141455544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.87215310412942</v>
-      </c>
-      <c r="H3">
-        <v>1.87215310412942</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.275634225182333</v>
-      </c>
-      <c r="N3">
-        <v>0.275634225182333</v>
-      </c>
-      <c r="O3">
-        <v>0.3889794427384823</v>
-      </c>
-      <c r="P3">
-        <v>0.3889794427384823</v>
-      </c>
-      <c r="Q3">
-        <v>0.5160294702794123</v>
-      </c>
-      <c r="R3">
-        <v>0.5160294702794123</v>
-      </c>
-      <c r="S3">
-        <v>0.3889794427384823</v>
-      </c>
-      <c r="T3">
-        <v>0.3889794427384823</v>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1796986666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.539096</v>
+      </c>
+      <c r="I8">
+        <v>0.06781909239240512</v>
+      </c>
+      <c r="J8">
+        <v>0.06781909239240511</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09309933333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.279298</v>
+      </c>
+      <c r="O8">
+        <v>0.09868343413743418</v>
+      </c>
+      <c r="P8">
+        <v>0.09868343413743418</v>
+      </c>
+      <c r="Q8">
+        <v>0.01672982606755555</v>
+      </c>
+      <c r="R8">
+        <v>0.150568434608</v>
+      </c>
+      <c r="S8">
+        <v>0.006692620937366474</v>
+      </c>
+      <c r="T8">
+        <v>0.006692620937366472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1796986666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.539096</v>
+      </c>
+      <c r="I9">
+        <v>0.06781909239240512</v>
+      </c>
+      <c r="J9">
+        <v>0.06781909239240511</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.441502</v>
+      </c>
+      <c r="N9">
+        <v>1.324506</v>
+      </c>
+      <c r="O9">
+        <v>0.4679833031945678</v>
+      </c>
+      <c r="P9">
+        <v>0.4679833031945678</v>
+      </c>
+      <c r="Q9">
+        <v>0.07933732073066667</v>
+      </c>
+      <c r="R9">
+        <v>0.714035886576</v>
+      </c>
+      <c r="S9">
+        <v>0.03173820287745533</v>
+      </c>
+      <c r="T9">
+        <v>0.03173820287745532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1796986666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.539096</v>
+      </c>
+      <c r="I10">
+        <v>0.06781909239240512</v>
+      </c>
+      <c r="J10">
+        <v>0.06781909239240511</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4088126666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.226438</v>
+      </c>
+      <c r="O10">
+        <v>0.433333262667998</v>
+      </c>
+      <c r="P10">
+        <v>0.4333332626679979</v>
+      </c>
+      <c r="Q10">
+        <v>0.07346309111644445</v>
+      </c>
+      <c r="R10">
+        <v>0.661167820048</v>
+      </c>
+      <c r="S10">
+        <v>0.02938826857758331</v>
+      </c>
+      <c r="T10">
+        <v>0.0293882685775833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.211082333333333</v>
+      </c>
+      <c r="H11">
+        <v>6.633247</v>
+      </c>
+      <c r="I11">
+        <v>0.8344725079663808</v>
+      </c>
+      <c r="J11">
+        <v>0.8344725079663807</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09309933333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.279298</v>
+      </c>
+      <c r="O11">
+        <v>0.09868343413743418</v>
+      </c>
+      <c r="P11">
+        <v>0.09868343413743418</v>
+      </c>
+      <c r="Q11">
+        <v>0.2058502911784444</v>
+      </c>
+      <c r="R11">
+        <v>1.852652620606</v>
+      </c>
+      <c r="S11">
+        <v>0.08234861277939987</v>
+      </c>
+      <c r="T11">
+        <v>0.08234861277939985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.211082333333333</v>
+      </c>
+      <c r="H12">
+        <v>6.633247</v>
+      </c>
+      <c r="I12">
+        <v>0.8344725079663808</v>
+      </c>
+      <c r="J12">
+        <v>0.8344725079663807</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.441502</v>
+      </c>
+      <c r="N12">
+        <v>1.324506</v>
+      </c>
+      <c r="O12">
+        <v>0.4679833031945678</v>
+      </c>
+      <c r="P12">
+        <v>0.4679833031945678</v>
+      </c>
+      <c r="Q12">
+        <v>0.9761972723313332</v>
+      </c>
+      <c r="R12">
+        <v>8.785775450981999</v>
+      </c>
+      <c r="S12">
+        <v>0.3905192007031622</v>
+      </c>
+      <c r="T12">
+        <v>0.3905192007031621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.211082333333333</v>
+      </c>
+      <c r="H13">
+        <v>6.633247</v>
+      </c>
+      <c r="I13">
+        <v>0.8344725079663808</v>
+      </c>
+      <c r="J13">
+        <v>0.8344725079663807</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4088126666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.226438</v>
+      </c>
+      <c r="O13">
+        <v>0.433333262667998</v>
+      </c>
+      <c r="P13">
+        <v>0.4333332626679979</v>
+      </c>
+      <c r="Q13">
+        <v>0.9039184649095554</v>
+      </c>
+      <c r="R13">
+        <v>8.135266184185999</v>
+      </c>
+      <c r="S13">
+        <v>0.3616046944838188</v>
+      </c>
+      <c r="T13">
+        <v>0.3616046944838187</v>
       </c>
     </row>
   </sheetData>
